--- a/data/state/raw_source/unemployment/Quits.xlsx
+++ b/data/state/raw_source/unemployment/Quits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D702A691-7A65-4EAE-BE4C-D50987E92D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0865A6-4AC8-4837-81E2-9CB79E05372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{491C1F53-F89D-4F8D-8FCB-7A0415FE0670}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>Quitting Levels Change from: June 2025 - July 2025(p)</t>
   </si>
   <si>
-    <t>Quitting Rates -7/24/2025</t>
-  </si>
-  <si>
     <t>Quitting Rates -5/1/2025</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Quitting Rates -4/1/2025</t>
+  </si>
+  <si>
+    <t>Quitting Levels -7/1/2024</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>54</v>
@@ -751,22 +751,22 @@
         <v>58</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
